--- a/src/main/resources/menRevolveShirt.xlsx
+++ b/src/main/resources/menRevolveShirt.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="169">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="211">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,7 +32,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>SHIRTS</t>
+    <t>men_revolve_shirt_1</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS39_V1.jpg</t>
@@ -47,7 +47,10 @@
     <t>CA$ 208.29</t>
   </si>
   <si>
-    <t>https://www.revolve.com/oas-smokin-rustic-viscose-shirt-in-green/dp/OASR-MS39/?d=Mens&amp;page=1&amp;lc=1&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/oas-smokin-rustic-viscose-shirt-in-green/dp/OASR-MS39/?d=Mens&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_2</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS44_V1.jpg</t>
@@ -59,6 +62,9 @@
     <t>https://www.revolve.com/oas-navy-diamond-cuba-terry-shirt-in-blue/dp/OASR-MS44/?d=Mens&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>men_revolve_shirt_3</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS35_V1.jpg</t>
   </si>
   <si>
@@ -71,6 +77,57 @@
     <t>https://www.revolve.com/oas-ecru-cuba-waffle-shirt-in-off-white/dp/OASR-MS35/?d=Mens&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>men_revolve_shirt_4</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS49_V1.jpg</t>
+  </si>
+  <si>
+    <t>Eldovado Viscose Shirt</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/oas-eldovado-viscose-shirt-in-blue/dp/OASR-MS49/?d=Mens&amp;page=1&amp;lc=5&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_5</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OBEY-MS357_V1.jpg</t>
+  </si>
+  <si>
+    <t>Obey</t>
+  </si>
+  <si>
+    <t>Tear Drop Open Knit Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 127.74</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/obey-tear-drop-open-knit-shirt-in-hydrangea/dp/OBEY-MS357/?d=Mens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_6</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS12_V1.jpg</t>
+  </si>
+  <si>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>Agatha Knit Polo</t>
+  </si>
+  <si>
+    <t>CA$ 181.05</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bound-agatha-knit-polo-in-tan/dp/BOUR-MS12/?d=Mens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_7</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MS62M_V1.jpg</t>
   </si>
   <si>
@@ -83,31 +140,58 @@
     <t>CA$ 164.24</t>
   </si>
   <si>
-    <t>https://www.revolve.com/wao-crochet-camp-shirt-in-natural/dp/WAOR-MS62/?d=Mens&amp;page=1&amp;lc=5&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS49_V1.jpg</t>
-  </si>
-  <si>
-    <t>Eldovado Viscose Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/oas-eldovado-viscose-shirt-in-blue/dp/OASR-MS49/?d=Mens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS12_V1.jpg</t>
-  </si>
-  <si>
-    <t>Bound</t>
-  </si>
-  <si>
-    <t>Agatha Knit Polo</t>
-  </si>
-  <si>
-    <t>CA$ 181.05</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bound-agatha-knit-polo-in-tan/dp/BOUR-MS12/?d=Mens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/wao-crochet-camp-shirt-in-natural/dp/WAOR-MS62/?d=Mens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_8</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS45_V1.jpg</t>
+  </si>
+  <si>
+    <t>Dusty Green Cuba Waffle Shirt</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/oas-dusty-green-cuba-waffle-shirt-in-green/dp/OASR-MS45/?d=Mens&amp;page=1&amp;lc=9&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_9</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BRIX-MS120_V1.jpg</t>
+  </si>
+  <si>
+    <t>Brixton</t>
+  </si>
+  <si>
+    <t>Bunker Reserve Fiesta Short Sleeve Camp Collar Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 135.35</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/brixton-bunker-reserve-fiesta-short-sleeve-camp-collar-shirt-in-mexico-city-jaguar/dp/BRIX-MS120/?d=Mens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_10</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MS115_V1.jpg</t>
+  </si>
+  <si>
+    <t>ALLSAINTS</t>
+  </si>
+  <si>
+    <t>Underground Short Sleeve Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 270.78</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/allsaints-underground-short-sleeve-shirt-in-jet-black-ecru/dp/ALLR-MS115/?d=Mens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_11</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS63_V1.jpg</t>
@@ -116,31 +200,205 @@
     <t>Atlas Cuba Net Shirt</t>
   </si>
   <si>
-    <t>https://www.revolve.com/oas-atlas-cuba-net-shirt-in-green/dp/OASR-MS63/?d=Mens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OBEY-MS357_V1.jpg</t>
-  </si>
-  <si>
-    <t>Obey</t>
-  </si>
-  <si>
-    <t>Tear Drop Open Knit Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 127.74</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/obey-tear-drop-open-knit-shirt-in-hydrangea/dp/OBEY-MS357/?d=Mens&amp;page=1&amp;lc=9&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS45_V1.jpg</t>
-  </si>
-  <si>
-    <t>Dusty Green Cuba Waffle Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/oas-dusty-green-cuba-waffle-shirt-in-green/dp/OASR-MS45/?d=Mens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/oas-atlas-cuba-net-shirt-in-green/dp/OASR-MS63/?d=Mens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_12</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS46_V1.jpg</t>
+  </si>
+  <si>
+    <t>Nearly Black Cuba Waffle Shirt</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/oas-nearly-black-cuba-waffle-shirt-in-nearly-black/dp/OASR-MS46/?d=Mens&amp;page=1&amp;lc=13&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_13</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MS101_V1.jpg</t>
+  </si>
+  <si>
+    <t>Polo Ralph Lauren</t>
+  </si>
+  <si>
+    <t>Oxford Sport Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 200.28</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/polo-ralph-lauren-oxford-sport-shirt-in-blue-white-stripe/dp/PLAU-MS101/?d=Mens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_14</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS3_V1.jpg</t>
+  </si>
+  <si>
+    <t>Mezcal Cuba Shirt</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/oas-mezcal-cuba-shirt-in-mezcal-cuba/dp/OASR-MS3/?d=Mens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_15</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WS1M_V1.jpg</t>
+  </si>
+  <si>
+    <t>BEVERLY HILLS x REVOLVE</t>
+  </si>
+  <si>
+    <t>Oversized Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 179.45</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-oversized-shirt-in-white/dp/BEVR-WS1/?d=Mens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_16</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS20_V1.jpg</t>
+  </si>
+  <si>
+    <t>Erice Polo</t>
+  </si>
+  <si>
+    <t>CA$ 799.51</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bound-erice-polo-in-green-cream/dp/BOUR-MS20/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_17</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MS257_V1.jpg</t>
+  </si>
+  <si>
+    <t>Ethan Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 129.26</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/allsaints-ethan-shirt-in-black/dp/ALLR-MS257/?d=Mens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_18</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/RARK-MS42_V1.jpg</t>
+  </si>
+  <si>
+    <t>ROARK</t>
+  </si>
+  <si>
+    <t>Gonzo Short Sleeve Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 1,257.75</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/roark-gonzo-short-sleeve-shirt-in-sarda-almond/dp/RARK-MS42/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PALF-MS141_V1.jpg</t>
+  </si>
+  <si>
+    <t>Palm Angels</t>
+  </si>
+  <si>
+    <t>X Formula 1 Racing Bowling Shirt</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/palm-angels-x-formula-1-racing-bowling-shirt-in-black-white-red/dp/PALF-MS141/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS5_V1.jpg</t>
+  </si>
+  <si>
+    <t>Black Diamond Shirt</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/oas-black-diamond-shirt-in-black-diamond/dp/OASR-MS5/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/DEUS-MS69_V1.jpg</t>
+  </si>
+  <si>
+    <t>Deus Ex Machina</t>
+  </si>
+  <si>
+    <t>Fantasma Moto Jersey</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/deus-ex-machina-fantasma-moto-jersey-in-brown-combo/dp/DEUS-MS69/?d=Mens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_22</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/RAIL-MS119_V1.jpg</t>
+  </si>
+  <si>
+    <t>Rails</t>
+  </si>
+  <si>
+    <t>Monaco Shirt</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/rails-monaco-shirt-in-ranunculus-watercolor-multi/dp/RAIL-MS119/?d=Mens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS20_V1.jpg</t>
+  </si>
+  <si>
+    <t>Banana Leaf Cuba Terry Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 1,233.72</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/oas-banana-leaf-cuba-terry-shirt-in-green/dp/OASR-MS20/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS68_V1.jpg</t>
+  </si>
+  <si>
+    <t>Russet Puzzlotec Viscose Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 185.86</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/oas-russet-puzzlotec-viscose-shirt-in-red/dp/OASR-MS68/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_25</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/MM6B-MS14_V1.jpg</t>
@@ -152,103 +410,58 @@
     <t>Denim Button Down Shirt</t>
   </si>
   <si>
-    <t>CA$ 1,233.72</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/mm6-maison-margiela-denim-button-down-shirt-in-medium-indigo/dp/MM6B-MS14/?d=Mens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MS257_V1.jpg</t>
-  </si>
-  <si>
-    <t>ALLSAINTS</t>
-  </si>
-  <si>
-    <t>Ethan Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 799.51</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/allsaints-ethan-shirt-in-black/dp/ALLR-MS257/?d=Mens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS46_V1.jpg</t>
-  </si>
-  <si>
-    <t>Nearly Black Cuba Waffle Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/oas-nearly-black-cuba-waffle-shirt-in-nearly-black/dp/OASR-MS46/?d=Mens&amp;page=1&amp;lc=13&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MS115_V1.jpg</t>
-  </si>
-  <si>
-    <t>Underground Short Sleeve Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 270.78</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/allsaints-underground-short-sleeve-shirt-in-jet-black-ecru/dp/ALLR-MS115/?d=Mens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/RARK-MS42_V1.jpg</t>
-  </si>
-  <si>
-    <t>ROARK</t>
-  </si>
-  <si>
-    <t>Gonzo Short Sleeve Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 129.26</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/roark-gonzo-short-sleeve-shirt-in-sarda-almond/dp/RARK-MS42/?d=Mens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WS1M_V1.jpg</t>
-  </si>
-  <si>
-    <t>BEVERLY HILLS x REVOLVE</t>
-  </si>
-  <si>
-    <t>Oversized Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 121.66</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-oversized-shirt-in-white/dp/BEVR-WS1/?d=Mens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OBEY-MS363_V1.jpg</t>
-  </si>
-  <si>
-    <t>Feather Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/obey-feather-shirt-in-silver-grey/dp/OBEY-MS363/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS5_V1.jpg</t>
-  </si>
-  <si>
-    <t>Black Diamond Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/oas-black-diamond-shirt-in-black-diamond/dp/OASR-MS5/?d=Mens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS20_V1.jpg</t>
-  </si>
-  <si>
-    <t>Banana Leaf Cuba Terry Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/oas-banana-leaf-cuba-terry-shirt-in-green/dp/OASR-MS20/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+    <t>CA$ 106.45</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/mm6-maison-margiela-denim-button-down-shirt-in-medium-indigo/dp/MM6B-MS14/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS9_V1.jpg</t>
+  </si>
+  <si>
+    <t>Arthur 1/4 Zip Waffle Knit Polo</t>
+  </si>
+  <si>
+    <t>CA$ 189.06</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bound-arthur-14-zip-waffle-knit-polo-in-bottle-green/dp/BOUR-MS9/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_27</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/DIGR-MS42_V1.jpg</t>
+  </si>
+  <si>
+    <t>Duvin Design</t>
+  </si>
+  <si>
+    <t>Cow Shirt</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/duvin-design-cow-shirt-in-black-white/dp/DIGR-MS42/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_28</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MS31M_V1.jpg</t>
+  </si>
+  <si>
+    <t>The Camp Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 397.35</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/wao-the-camp-shirt-in-off-white-red/dp/WAOR-MS31/?d=Mens&amp;page=1&amp;lc=29&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_29</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS8_V1.jpg</t>
@@ -257,10 +470,13 @@
     <t>Railway Shirt</t>
   </si>
   <si>
-    <t>CA$ 397.35</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/oas-railway-shirt-in-railway/dp/OASR-MS8/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+    <t>CA$ 272.38</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/oas-railway-shirt-in-railway/dp/OASR-MS8/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_30</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SOYA-MS25_V1.jpg</t>
@@ -272,40 +488,28 @@
     <t>Lei Shirt</t>
   </si>
   <si>
-    <t>https://www.revolve.com/seroya-lei-shirt-in-jacquard-blue-pink/dp/SOYA-MS25/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS3_V1.jpg</t>
-  </si>
-  <si>
-    <t>Mezcal Cuba Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 179.45</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/oas-mezcal-cuba-shirt-in-mezcal-cuba/dp/OASR-MS3/?d=Mens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS20_V1.jpg</t>
-  </si>
-  <si>
-    <t>Erice Polo</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bound-erice-polo-in-green-cream/dp/BOUR-MS20/?d=Mens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/DEUS-MS69_V1.jpg</t>
-  </si>
-  <si>
-    <t>Deus Ex Machina</t>
-  </si>
-  <si>
-    <t>Fantasma Moto Jersey</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/deus-ex-machina-fantasma-moto-jersey-in-brown-combo/dp/DEUS-MS69/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/seroya-lei-shirt-in-jacquard-blue-pink/dp/SOYA-MS25/?d=Mens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_31</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BPLS-MS43_V1.jpg</t>
+  </si>
+  <si>
+    <t>Beams Plus</t>
+  </si>
+  <si>
+    <t>Knit Tee Jacquard</t>
+  </si>
+  <si>
+    <t>CA$ 120.14</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beams-plus-knit-tee-jacquard-in-burgundy/dp/BPLS-MS43/?d=Mens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_32</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/JLER-MS28_V1.jpg</t>
@@ -317,7 +521,106 @@
     <t>Live Your Life With Ease Button Up Shirt</t>
   </si>
   <si>
-    <t>https://www.revolve.com/jungles-live-your-life-with-ease-button-up-shirt-in-birch/dp/JLER-MS28/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>CA$ 165.76</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/jungles-live-your-life-with-ease-button-up-shirt-in-birch/dp/JLER-MS28/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_33</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/RARK-MS43_V1.jpg</t>
+  </si>
+  <si>
+    <t>Gonzo Grotto Short Sleeve Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 365.31</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/roark-gonzo-grotto-short-sleeve-shirt-in-costa-white/dp/RARK-MS43/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MS41_V1.jpg</t>
+  </si>
+  <si>
+    <t>Reform SS Polo</t>
+  </si>
+  <si>
+    <t>CA$ 235.53</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/allsaints-reform-ss-polo-in-black/dp/ALLR-MS41/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MS93_V1.jpg</t>
+  </si>
+  <si>
+    <t>FRAME</t>
+  </si>
+  <si>
+    <t>Camp Collar Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 616.86</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/frame-camp-collar-shirt-in-smoke-beige-stripe/dp/FAMF-MS93/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_36</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MLAY-MO3_V1.jpg</t>
+  </si>
+  <si>
+    <t>Marine Layer</t>
+  </si>
+  <si>
+    <t>Max Broken In Corduroy Overshirt</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/marine-layer-max-broken-in-corduroy-overshirt-in-iceberg-green/dp/MLAY-MO3/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_37</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/RAIL-MS102_V1.jpg</t>
+  </si>
+  <si>
+    <t>Dresden Shirt</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/rails-dresden-shirt-in-kyoto-blue/dp/RAIL-MS102/?d=Mens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_38</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SEDF-MS20_V1.jpg</t>
+  </si>
+  <si>
+    <t>SIEDRES</t>
+  </si>
+  <si>
+    <t>Henry Resort Collar Crocheted Long Sleeve Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 104.93</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/siedres-henry-resort-collar-crocheted-long-sleeve-shirt-in-ecru/dp/SEDF-MS20/?d=Mens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_39</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS14_V1.jpg</t>
@@ -326,175 +629,10 @@
     <t>Cuba Terry</t>
   </si>
   <si>
-    <t>CA$ 200.28</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/oas-cuba-terry-in-05-beige/dp/OASR-MS14/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MS101_V1.jpg</t>
-  </si>
-  <si>
-    <t>Polo Ralph Lauren</t>
-  </si>
-  <si>
-    <t>Oxford Sport Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 1,257.75</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/polo-ralph-lauren-oxford-sport-shirt-in-blue-white-stripe/dp/PLAU-MS101/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PALF-MS141_V1.jpg</t>
-  </si>
-  <si>
-    <t>Palm Angels</t>
-  </si>
-  <si>
-    <t>X Formula 1 Racing Bowling Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 104.93</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/palm-angels-x-formula-1-racing-bowling-shirt-in-black-white-red/dp/PALF-MS141/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BRIX-MS111_V1.jpg</t>
-  </si>
-  <si>
-    <t>Brixton</t>
-  </si>
-  <si>
-    <t>Bunker Linen Blend Short Sleeve Camp Collar Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 189.06</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/brixton-bunker-linen-blend-short-sleeve-camp-collar-shirt-in-whitecap/dp/BRIX-MS111/?d=Mens&amp;page=1&amp;lc=29&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MS31M_V1.jpg</t>
-  </si>
-  <si>
-    <t>The Camp Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 165.76</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/wao-the-camp-shirt-in-off-white-red/dp/WAOR-MS31/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/RAIL-MS119_V1.jpg</t>
-  </si>
-  <si>
-    <t>Rails</t>
-  </si>
-  <si>
-    <t>Monaco Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 185.86</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/rails-monaco-shirt-in-ranunculus-watercolor-multi/dp/RAIL-MS119/?d=Mens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MS41_V1.jpg</t>
-  </si>
-  <si>
-    <t>Reform SS Polo</t>
-  </si>
-  <si>
-    <t>CA$ 360.50</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/allsaints-reform-ss-polo-in-black/dp/ALLR-MS41/?d=Mens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/DIEF-MS23_V1.jpg</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>Simply Over Denim Button Down Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 365.31</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/diesel-simply-over-denim-button-down-shirt-in-grey/dp/DIEF-MS23/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS18_V1.jpg</t>
-  </si>
-  <si>
-    <t>Theodore 1/4 Heavy Knit Polo</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bound-theodore-14-heavy-knit-polo-in-green/dp/BOUR-MS18/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/VINCE-MS167_V1.jpg</t>
-  </si>
-  <si>
-    <t>Vince</t>
-  </si>
-  <si>
-    <t>Moonbay Stripe Short Sleeve Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/vince-moonbay-stripe-short-sleeve-shirt-in-soft-black/dp/VINCE-MS167/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FAMF-MS93_V1.jpg</t>
-  </si>
-  <si>
-    <t>FRAME</t>
-  </si>
-  <si>
-    <t>Camp Collar Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/frame-camp-collar-shirt-in-smoke-beige-stripe/dp/FAMF-MS93/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BOUR-MS9_V1.jpg</t>
-  </si>
-  <si>
-    <t>Arthur 1/4 Zip Waffle Knit Polo</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bound-arthur-14-zip-waffle-knit-polo-in-bottle-green/dp/BOUR-MS9/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SEDF-MS5_V1.jpg</t>
-  </si>
-  <si>
-    <t>SIEDRES</t>
-  </si>
-  <si>
-    <t>X Fwrd Printed Patchwork Short Sleeve Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 312.43</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/siedres-x-fwrd-printed-patchwork-short-sleeve-shirt-in-multi/dp/SEDF-MS5/?d=Mens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/WAOR-MS60M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Open Knit Short Sleeve Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/wao-open-knit-short-sleeve-shirt-in-taupe/dp/WAOR-MS60/?d=Mens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/oas-cuba-terry-in-05-beige/dp/OASR-MS14/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_shirt_40</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ROLS-MS145_V1.jpg</t>
@@ -506,19 +644,7 @@
     <t>Bon Lennox Shirt</t>
   </si>
   <si>
-    <t>CA$ 616.86</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/rollas-bon-lennox-shirt-in-multi/dp/ROLS-MS145/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OASR-MS28_V1.jpg</t>
-  </si>
-  <si>
-    <t>Squiggle Cuba Terry Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/oas-squiggle-cuba-terry-shirt-in-dark-green/dp/OASR-MS28/?d=Mens&amp;page=1&amp;lc=41&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/rollas-bon-lennox-shirt-in-multi/dp/ROLS-MS145/?d=Mens&amp;page=1&amp;lc=41&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -611,782 +737,782 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>133</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>145</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>149</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="E37" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>152</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>157</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>6</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>160</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>165</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
